--- a/AutomationPractice.com Test Casses.xlsx
+++ b/AutomationPractice.com Test Casses.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="NavigationMenu" sheetId="1" r:id="rId1"/>
-    <sheet name="authentication" sheetId="4" r:id="rId2"/>
+    <sheet name="Authentication" sheetId="4" r:id="rId2"/>
     <sheet name="Footer" sheetId="2" r:id="rId3"/>
     <sheet name="Header" sheetId="3" r:id="rId4"/>
   </sheets>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="288">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -51,21 +51,9 @@
     <t>Pass/Fail</t>
   </si>
   <si>
-    <t>ID 01</t>
-  </si>
-  <si>
     <t>2.user naviagted to same page</t>
   </si>
   <si>
-    <t>ID 02</t>
-  </si>
-  <si>
-    <t>ID 03</t>
-  </si>
-  <si>
-    <t>ID 04</t>
-  </si>
-  <si>
     <t>2.click on "sale 70% off banner" at the top of webpage</t>
   </si>
   <si>
@@ -117,15 +105,6 @@
     <t>3.naivgated page info bar should have ''Tops" page</t>
   </si>
   <si>
-    <t>ID 05</t>
-  </si>
-  <si>
-    <t>ID 06</t>
-  </si>
-  <si>
-    <t>ID 07</t>
-  </si>
-  <si>
     <t>3.click on 'T-shirts' menu button</t>
   </si>
   <si>
@@ -171,15 +150,6 @@
     <t>3.naivgated page info bar should have ''women" page name</t>
   </si>
   <si>
-    <t>ID 08</t>
-  </si>
-  <si>
-    <t>ID 09</t>
-  </si>
-  <si>
-    <t>ID 10</t>
-  </si>
-  <si>
     <t>verify functionality of "Casual Dresses" menu button</t>
   </si>
   <si>
@@ -216,27 +186,12 @@
     <t>3.naivgated page info bar should have "Summer Dresses" page name</t>
   </si>
   <si>
-    <t>ID 11</t>
-  </si>
-  <si>
     <t>2.hover mouse on 'DRESSES' menu  button of page naviagation bar</t>
   </si>
   <si>
     <t>2.hover mouse on 'WOMEN' menu  button of page naviagation bar</t>
   </si>
   <si>
-    <t>ID 12</t>
-  </si>
-  <si>
-    <t>ID 13</t>
-  </si>
-  <si>
-    <t>ID_14</t>
-  </si>
-  <si>
-    <t>check newsletter subscription functionality</t>
-  </si>
-  <si>
     <t>3.click on "arrow shaped button" next to text field</t>
   </si>
   <si>
@@ -249,9 +204,6 @@
     <t>2.in Footer section type Unsuscribed email id  in 'newsletter' text field</t>
   </si>
   <si>
-    <t>ID_15</t>
-  </si>
-  <si>
     <t>4.verify following alert notification is shown on page "Newsletter : This email address is already registered."</t>
   </si>
   <si>
@@ -264,15 +216,6 @@
     <t>testmail1@yahoo.com</t>
   </si>
   <si>
-    <t>ID_16</t>
-  </si>
-  <si>
-    <t>ID_17</t>
-  </si>
-  <si>
-    <t>check newsletter text field functionality</t>
-  </si>
-  <si>
     <t>check newsletter textfield functionality</t>
   </si>
   <si>
@@ -294,9 +237,6 @@
     <t>4.newsletter text field should show following text "this email address is already registered."</t>
   </si>
   <si>
-    <t>check "Facebook" button functionality</t>
-  </si>
-  <si>
     <t>2.in Footer section click on "FACEBOOK" logo button</t>
   </si>
   <si>
@@ -306,30 +246,9 @@
     <t>3.user should be navigated to following page "https://www.facebook.com/groups/525066904174158/"</t>
   </si>
   <si>
-    <t>ID_18</t>
-  </si>
-  <si>
-    <t>ID_19</t>
-  </si>
-  <si>
-    <t>ID_20</t>
-  </si>
-  <si>
-    <t>ID_21</t>
-  </si>
-  <si>
-    <t>ID_22</t>
-  </si>
-  <si>
-    <t>check "Twitter" button functionality</t>
-  </si>
-  <si>
     <t>check "Youtube" button functionality</t>
   </si>
   <si>
-    <t>check "Google Plus" button functionality</t>
-  </si>
-  <si>
     <t>2.in Footer section click on "Twitter" logo button</t>
   </si>
   <si>
@@ -357,9 +276,6 @@
     <t xml:space="preserve">3.user should be navigated to following page "https://plus.google.com/111979135243110831526/posts" </t>
   </si>
   <si>
-    <t>check "Women" link functionality in footer section</t>
-  </si>
-  <si>
     <t>2.in footer section click on "Women" link</t>
   </si>
   <si>
@@ -369,33 +285,12 @@
     <t>3.naivgated page info bar should have "Women" page name</t>
   </si>
   <si>
-    <t xml:space="preserve">check sale 70% off banner of header section of page  </t>
-  </si>
-  <si>
-    <t>check call us now contact number of header secton of page</t>
-  </si>
-  <si>
     <t>verify functionality of 'contact us' tab button of header section of page</t>
   </si>
   <si>
-    <t>check "" link functionality in footer section</t>
-  </si>
-  <si>
-    <t>2.in footer section click on "" link</t>
-  </si>
-  <si>
-    <t>3.verify navigated page is "" from naviagation info bar</t>
-  </si>
-  <si>
-    <t>3.naivgated page info bar should have "" page name</t>
-  </si>
-  <si>
     <t>2.in footer section click on "Specials" link</t>
   </si>
   <si>
-    <t>check "Specials" link functionality in footer section</t>
-  </si>
-  <si>
     <t>3.verify navigated page is "Price drop" from naviagation info bar</t>
   </si>
   <si>
@@ -426,9 +321,6 @@
     <t>3.naivgated page info bar should have "Best sellers" page name</t>
   </si>
   <si>
-    <t>check "Our stores" link functionality in footer section</t>
-  </si>
-  <si>
     <t>2.in footer section click on "Our stores" link</t>
   </si>
   <si>
@@ -438,21 +330,6 @@
     <t>3.naivgated page info bar should have "Our stores(s)!" page name</t>
   </si>
   <si>
-    <t>ID_23</t>
-  </si>
-  <si>
-    <t>ID_24</t>
-  </si>
-  <si>
-    <t>ID_25</t>
-  </si>
-  <si>
-    <t>ID_26</t>
-  </si>
-  <si>
-    <t>check "Contact us" link functionality in footer section</t>
-  </si>
-  <si>
     <t>2.in footer section click on "Contact us" link</t>
   </si>
   <si>
@@ -462,9 +339,6 @@
     <t>3.naivgated page info bar should have "Contact" page name</t>
   </si>
   <si>
-    <t>check "Terms and conditions of use" link functionality in footer section</t>
-  </si>
-  <si>
     <t>2.in footer section click on "Terms and conditions of use" link</t>
   </si>
   <si>
@@ -474,15 +348,6 @@
     <t>3.naivgated page info bar should have "Terms and conditions of use" page name</t>
   </si>
   <si>
-    <t>ID_27</t>
-  </si>
-  <si>
-    <t>ID_28</t>
-  </si>
-  <si>
-    <t>check "About us" link functionality in footer section</t>
-  </si>
-  <si>
     <t>2.in footer section click on "About us" link</t>
   </si>
   <si>
@@ -492,12 +357,6 @@
     <t>3.naivgated page info bar should have "About us" page name</t>
   </si>
   <si>
-    <t>ID_29</t>
-  </si>
-  <si>
-    <t>check "Sitemap" link functionality in footer section</t>
-  </si>
-  <si>
     <t>2.in footer section click on "Sitemap" link</t>
   </si>
   <si>
@@ -507,12 +366,6 @@
     <t>3.naivgated page info bar should have "Sitemap" page name</t>
   </si>
   <si>
-    <t>ID_30</t>
-  </si>
-  <si>
-    <t>check "My account" link functionality in footer section</t>
-  </si>
-  <si>
     <t>2.in footer section click on "My account" link</t>
   </si>
   <si>
@@ -522,51 +375,21 @@
     <t>3.naivgated page info bar should have "Authentication" page name</t>
   </si>
   <si>
-    <t>check "My orders" link functionality in footer section</t>
-  </si>
-  <si>
     <t>2.in footer section click on "My orders" link</t>
   </si>
   <si>
-    <t>check "My credit slips" link functionality in footer section</t>
-  </si>
-  <si>
     <t>2.in footer section click on "My credit slips" link</t>
   </si>
   <si>
-    <t>check "My addresses" link functionality in footer section</t>
-  </si>
-  <si>
     <t>2.in footer section click on "My addresses" link</t>
   </si>
   <si>
-    <t>check "My personal info" link functionality in footer section</t>
-  </si>
-  <si>
     <t>2.in footer section click on "My personal info" link</t>
   </si>
   <si>
-    <t>ID_31</t>
-  </si>
-  <si>
-    <t>ID_32</t>
-  </si>
-  <si>
-    <t>ID_33</t>
-  </si>
-  <si>
-    <t>ID_34</t>
-  </si>
-  <si>
-    <t>ID_35</t>
-  </si>
-  <si>
     <t>User Account Login Required</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>verify login functionality</t>
   </si>
   <si>
@@ -582,15 +405,9 @@
     <t>5.click on "Sign in" button</t>
   </si>
   <si>
-    <t>4.then enter valid Email and Password in ALREADY REGISTERED? Section</t>
-  </si>
-  <si>
     <t>3.navigated page should be "Authentication" page</t>
   </si>
   <si>
-    <t>6.verify navigated page is "myAccount on navigation info bar</t>
-  </si>
-  <si>
     <t>6.navigated page should be "myAccount" page</t>
   </si>
   <si>
@@ -607,6 +424,468 @@
   </si>
   <si>
     <t>verify functionality of "Evening Dresses" sub menu button</t>
+  </si>
+  <si>
+    <t>6.verify navigated page is "myAccount on navigation page info bar</t>
+  </si>
+  <si>
+    <t>1.go to http://automationpractice.com/index.php?controller=authentication&amp;back=my-account</t>
+  </si>
+  <si>
+    <t>2.verify 3 titles which are 1.AUTHENTICATION 2.CREATE AN ACCOUNT 3.ALREADY REGISTERED?</t>
+  </si>
+  <si>
+    <t>2.all section title should match with these 1.AUTHENTICATION 2.CREATE AN ACCOUNT 3.ALREADY REGISTERED?</t>
+  </si>
+  <si>
+    <t>2.verify "Please enter your email address to create an account." label is correct under CREATE AN ACCOUNT SECTION</t>
+  </si>
+  <si>
+    <t>2. label should math with this "Please enter your email address to create an account."</t>
+  </si>
+  <si>
+    <t>verify "Invalid email address." error message under CREATE AN ACCOUNT SECTION</t>
+  </si>
+  <si>
+    <t>2.click on "Create an account" button</t>
+  </si>
+  <si>
+    <t>3.verify appeared error message is same to this one "Invalid email address."</t>
+  </si>
+  <si>
+    <t>3.appeared error message should same to this one "Invalid email address."</t>
+  </si>
+  <si>
+    <t>verify "Forgot your password?" link functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.click on Forgot your password?" link </t>
+  </si>
+  <si>
+    <t>3.verify navigated page title from 'Naviagtion page info bar'</t>
+  </si>
+  <si>
+    <t>3.title should be "Forgot your password"</t>
+  </si>
+  <si>
+    <t>2.click on "sign In" button</t>
+  </si>
+  <si>
+    <t>verify "An email address required." error message</t>
+  </si>
+  <si>
+    <t>3.verify appeared error message is same to this one "An email address required."</t>
+  </si>
+  <si>
+    <t>3 appeared error message should be same to this one "An email address required."</t>
+  </si>
+  <si>
+    <t>verify "home icon" button functionality under navigation page info bar</t>
+  </si>
+  <si>
+    <t>2.click on "home icon" button which is  under navigation page info bar</t>
+  </si>
+  <si>
+    <t>3.verify navigated page url</t>
+  </si>
+  <si>
+    <t>3.url should be "http://automationpractice.com/index.php"</t>
+  </si>
+  <si>
+    <t>2.enter valid email id and password  and then click "Sign In" button</t>
+  </si>
+  <si>
+    <t>3.then in footer section click on "My account" link</t>
+  </si>
+  <si>
+    <t>4.verify navigated page is "My account" from page naviagation info bar</t>
+  </si>
+  <si>
+    <t>3.in footer section click on "My orders" link</t>
+  </si>
+  <si>
+    <t>4.verify navigated page is "Order history" from naviagation info bar</t>
+  </si>
+  <si>
+    <t>3.naivgated page info bar should have "My account" page name</t>
+  </si>
+  <si>
+    <t>3.naivgated page info bar should have "Order history" page name</t>
+  </si>
+  <si>
+    <t>3.in footer section click on "My credit slip" link</t>
+  </si>
+  <si>
+    <t>4.verify navigated page is "Credit slips" from naviagation info bar</t>
+  </si>
+  <si>
+    <t>3.naivgated page info bar should have "Credit slips" page name</t>
+  </si>
+  <si>
+    <t>3.in footer section click on "My addresses" link</t>
+  </si>
+  <si>
+    <t>4.verify navigated page is "My addresses" from naviagation info bar</t>
+  </si>
+  <si>
+    <t>3.naivgated page info bar should have "My addresses" page name</t>
+  </si>
+  <si>
+    <t>3.in footer section click on "My personal info" link</t>
+  </si>
+  <si>
+    <t>4.verify navigated page is "Your personal information" from naviagation info bar</t>
+  </si>
+  <si>
+    <t>3.naivgated page info bar should have "Your personal information" page name</t>
+  </si>
+  <si>
+    <t>3.in footer section click on "Sign out" link</t>
+  </si>
+  <si>
+    <t>4.verify navigated page is "Authentication" from naviagation info bar</t>
+  </si>
+  <si>
+    <t>verify functionality of 'Sign in' tab button of header section of page</t>
+  </si>
+  <si>
+    <t>2.click on 'Sign in'  tab button</t>
+  </si>
+  <si>
+    <t>3.veify navigated page is "Authentication"  from page navigation bar</t>
+  </si>
+  <si>
+    <t>3. navigated page should be "Authentication"</t>
+  </si>
+  <si>
+    <t>verify functionality of 'Sign out' tab button of header section of page</t>
+  </si>
+  <si>
+    <t>4.enter valid email and password and click "sign in" button</t>
+  </si>
+  <si>
+    <t>5.then click on "sign out" button from header section</t>
+  </si>
+  <si>
+    <t>6.verify navigated page is "Authentication" from page navigation info bar</t>
+  </si>
+  <si>
+    <t>6.navigated page should be "authentication"</t>
+  </si>
+  <si>
+    <t>verify functionality of '//username here//' tab button of header section of page</t>
+  </si>
+  <si>
+    <t>5.then click on "//username here//" button next to sign out button from header section</t>
+  </si>
+  <si>
+    <t>6.verify navigated page is "My account" from page navigation info bar</t>
+  </si>
+  <si>
+    <t>6.navigated page should be "My account"</t>
+  </si>
+  <si>
+    <t>2.click on "your logo" image</t>
+  </si>
+  <si>
+    <t>3.verify navigated page is "http://automationpractice.com/index.php"</t>
+  </si>
+  <si>
+    <t>3.navigated page should be "http://automationpractice.com/index.php"</t>
+  </si>
+  <si>
+    <t>3.verify navigated page is "Your shopping cart" from navigation page info bar</t>
+  </si>
+  <si>
+    <t>3.navigated page should be "Your shopping cart"</t>
+  </si>
+  <si>
+    <t>verify functionality of "cart" button</t>
+  </si>
+  <si>
+    <t>2.click on "cart" button</t>
+  </si>
+  <si>
+    <t>TC_NavigationMenu_ID_01</t>
+  </si>
+  <si>
+    <t>TC_NavigationMenu_ID_02</t>
+  </si>
+  <si>
+    <t>TC_NavigationMenu_ID_03</t>
+  </si>
+  <si>
+    <t>TC_NavigationMenu_ID_04</t>
+  </si>
+  <si>
+    <t>TC_NavigationMenu_ID_05</t>
+  </si>
+  <si>
+    <t>TC_NavigationMenu_ID_06</t>
+  </si>
+  <si>
+    <t>TC_NavigationMenu_ID_07</t>
+  </si>
+  <si>
+    <t>TC_NavigationMenu_ID_08</t>
+  </si>
+  <si>
+    <t>TC_NavigationMenu_ID_09</t>
+  </si>
+  <si>
+    <t>TC_NavigationMenu_ID_10</t>
+  </si>
+  <si>
+    <t>TC_NavigationMenu_ID_11</t>
+  </si>
+  <si>
+    <t>TC_NavigationMenu_ID_12</t>
+  </si>
+  <si>
+    <t>TC_NavigationMenu_ID_13</t>
+  </si>
+  <si>
+    <t>TC_NavigationMenu_ID_14</t>
+  </si>
+  <si>
+    <t>TC_NavigationMenu_ID_15</t>
+  </si>
+  <si>
+    <t>TC_authentication_ID_01</t>
+  </si>
+  <si>
+    <t>TC_authentication_ID_02</t>
+  </si>
+  <si>
+    <t>TC_authentication_ID_03</t>
+  </si>
+  <si>
+    <t>TC_authentication_ID_04</t>
+  </si>
+  <si>
+    <t>TC_authentication_ID_05</t>
+  </si>
+  <si>
+    <t>TC_authentication_ID_06</t>
+  </si>
+  <si>
+    <t>TC_authentication_ID_07</t>
+  </si>
+  <si>
+    <t>TC_footer_ID_01</t>
+  </si>
+  <si>
+    <t>TC_footer_ID_02</t>
+  </si>
+  <si>
+    <t>TC_footer_ID_03</t>
+  </si>
+  <si>
+    <t>TC_footer_ID_04</t>
+  </si>
+  <si>
+    <t>TC_footer_ID_05</t>
+  </si>
+  <si>
+    <t>TC_footer_ID_06</t>
+  </si>
+  <si>
+    <t>TC_footer_ID_07</t>
+  </si>
+  <si>
+    <t>TC_footer_ID_08</t>
+  </si>
+  <si>
+    <t>TC_footer_ID_09</t>
+  </si>
+  <si>
+    <t>TC_footer_ID_10</t>
+  </si>
+  <si>
+    <t>TC_footer_ID_11</t>
+  </si>
+  <si>
+    <t>TC_footer_ID_12</t>
+  </si>
+  <si>
+    <t>TC_footer_ID_13</t>
+  </si>
+  <si>
+    <t>TC_footer_ID_14</t>
+  </si>
+  <si>
+    <t>TC_footer_ID_15</t>
+  </si>
+  <si>
+    <t>TC_footer_ID_16</t>
+  </si>
+  <si>
+    <t>TC_footer_ID_17</t>
+  </si>
+  <si>
+    <t>TC_footer_ID_18</t>
+  </si>
+  <si>
+    <t>TC_footer_ID_19</t>
+  </si>
+  <si>
+    <t>TC_footer_ID_20</t>
+  </si>
+  <si>
+    <t>TC_footer_ID_21</t>
+  </si>
+  <si>
+    <t>TC_footer_ID_22</t>
+  </si>
+  <si>
+    <t>TC_footer_ID_23</t>
+  </si>
+  <si>
+    <t>TC_footer_ID_24</t>
+  </si>
+  <si>
+    <t>TC_footer_ID_25</t>
+  </si>
+  <si>
+    <t>TC_footer_ID_26</t>
+  </si>
+  <si>
+    <t>TC_footer_ID_27</t>
+  </si>
+  <si>
+    <t>TC_footer_ID_28</t>
+  </si>
+  <si>
+    <t>TC_header_ID_01</t>
+  </si>
+  <si>
+    <t>TC_header_ID_02</t>
+  </si>
+  <si>
+    <t>TC_header_ID_03</t>
+  </si>
+  <si>
+    <t>TC_header_ID_04</t>
+  </si>
+  <si>
+    <t>TC_header_ID_05</t>
+  </si>
+  <si>
+    <t>TC_header_ID_06</t>
+  </si>
+  <si>
+    <t>verify functionality of "your logo" image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify sale 70% off banner of header section of page  </t>
+  </si>
+  <si>
+    <t>verify call us now contact number of header secton of page</t>
+  </si>
+  <si>
+    <t>verify newsletter subscription functionality</t>
+  </si>
+  <si>
+    <t>verify newsletter text field functionality</t>
+  </si>
+  <si>
+    <t>verify "Facebook" button functionality</t>
+  </si>
+  <si>
+    <t>verify "Twitter" button functionality</t>
+  </si>
+  <si>
+    <t>verify "Google Plus" button functionality</t>
+  </si>
+  <si>
+    <t>verify "Women" link functionality in footer section</t>
+  </si>
+  <si>
+    <t>verify "Specials" link functionality in footer section</t>
+  </si>
+  <si>
+    <t>verify "Terms and conditions of use" link functionality in footer section</t>
+  </si>
+  <si>
+    <t>verify "Contact us" link functionality in footer section</t>
+  </si>
+  <si>
+    <t>verify "Our stores" link functionality in footer section</t>
+  </si>
+  <si>
+    <t>verify "Sitemap" link functionality in footer section</t>
+  </si>
+  <si>
+    <t>verify "About us" link functionality in footer section</t>
+  </si>
+  <si>
+    <t>verify "My orders" link functionality in footer section</t>
+  </si>
+  <si>
+    <t>verify "My account" link functionality in footer section</t>
+  </si>
+  <si>
+    <t>verify "My credit slips" link functionality in footer section</t>
+  </si>
+  <si>
+    <t>verify "My addresses" link functionality in footer section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify "My account" link functionality in footer section after user login   </t>
+  </si>
+  <si>
+    <t>verify "My personal info" link functionality in footer section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify "My addresses" link functionality in footer section after user login   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify "My credit slips" link functionality in footer section after user login   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify "My orders" link functionality in footer section after user login   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify "Sign out" link functionality in footer section after user login   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify "My personal info" link functionality in footer section after user login   </t>
+  </si>
+  <si>
+    <t>TC_authentication_ID_08</t>
+  </si>
+  <si>
+    <t>4.then enter 'valid Email and invalid Password' in ALREADY REGISTERED? Section</t>
+  </si>
+  <si>
+    <t>4.then enter 'valid Email and valid Password' in ALREADY REGISTERED? Section</t>
+  </si>
+  <si>
+    <t>4.then enter 'invalid Email and invalid Password' in ALREADY REGISTERED? Section</t>
+  </si>
+  <si>
+    <t>4.then enter 'invalid Email and valid Password' in ALREADY REGISTERED? Section</t>
+  </si>
+  <si>
+    <t>TC_authentication_ID_09</t>
+  </si>
+  <si>
+    <t>TC_authentication_ID_10</t>
+  </si>
+  <si>
+    <t>6.navigated page should be "Authentication" page</t>
+  </si>
+  <si>
+    <t>6.verify navigated page is Authentication on navigation page info bar</t>
+  </si>
+  <si>
+    <t>6.navigated page should be "Authenticationt" page</t>
+  </si>
+  <si>
+    <t>verify Label</t>
+  </si>
+  <si>
+    <t>verify Section titles</t>
   </si>
 </sst>
 </file>
@@ -660,7 +939,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -760,8 +1039,38 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -773,7 +1082,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -792,9 +1101,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -820,16 +1126,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -844,16 +1177,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1141,12 +1471,12 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
+      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.21875" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="60" style="6" customWidth="1"/>
     <col min="4" max="4" width="19.5546875" style="1" customWidth="1"/>
@@ -1159,58 +1489,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>23</v>
+      <c r="A2" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
-      <c r="B3" s="25"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -1220,10 +1550,10 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="25"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1233,29 +1563,29 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="25"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1265,10 +1595,10 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
-      <c r="B7" s="25"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -1278,29 +1608,29 @@
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>24</v>
+      <c r="A8" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>20</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
-      <c r="B9" s="25"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -1310,10 +1640,10 @@
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="25"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -1323,29 +1653,29 @@
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>191</v>
+      <c r="A11" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>130</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="27"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="5" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -1355,10 +1685,10 @@
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="27"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -1368,10 +1698,10 @@
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
-      <c r="B14" s="24"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -1381,29 +1711,29 @@
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>190</v>
+      <c r="A15" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="27"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="5" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -1413,10 +1743,10 @@
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="27"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -1426,10 +1756,10 @@
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
-      <c r="B18" s="24"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -1439,29 +1769,29 @@
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>192</v>
+      <c r="A19" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>131</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="27"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="5" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1471,10 +1801,10 @@
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
-      <c r="B21" s="27"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -1484,10 +1814,10 @@
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
-      <c r="B22" s="24"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -1497,29 +1827,29 @@
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>193</v>
+      <c r="A23" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>132</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="27"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="5" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -1529,10 +1859,10 @@
       <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="27"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -1542,10 +1872,10 @@
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
-      <c r="B26" s="24"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -1555,29 +1885,29 @@
       <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>52</v>
+      <c r="A27" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>42</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
-      <c r="B28" s="27"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="5" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -1587,10 +1917,10 @@
       <c r="I28" s="4"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="21"/>
-      <c r="B29" s="27"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="6" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -1600,10 +1930,10 @@
       <c r="I29" s="4"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
-      <c r="B30" s="24"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="27"/>
       <c r="C30" s="5" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -1613,29 +1943,29 @@
       <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>194</v>
+      <c r="A31" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>133</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="21"/>
-      <c r="B32" s="27"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="26"/>
       <c r="C32" s="5" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -1645,10 +1975,10 @@
       <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="21"/>
-      <c r="B33" s="27"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="6" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -1658,10 +1988,10 @@
       <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="22"/>
-      <c r="B34" s="24"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="27"/>
       <c r="C34" s="5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -1671,29 +2001,29 @@
       <c r="I34" s="4"/>
     </row>
     <row r="35" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>60</v>
+      <c r="A35" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>50</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="21"/>
-      <c r="B36" s="27"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="26"/>
       <c r="C36" s="5" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -1703,10 +2033,10 @@
       <c r="I36" s="4"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="21"/>
-      <c r="B37" s="27"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -1716,10 +2046,10 @@
       <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="22"/>
-      <c r="B38" s="24"/>
+      <c r="A38" s="30"/>
+      <c r="B38" s="27"/>
       <c r="C38" s="5" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -1729,29 +2059,29 @@
       <c r="I38" s="4"/>
     </row>
     <row r="39" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>52</v>
+      <c r="A39" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>42</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="21"/>
-      <c r="B40" s="27"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="26"/>
       <c r="C40" s="5" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -1761,10 +2091,10 @@
       <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="21"/>
-      <c r="B41" s="27"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="26"/>
       <c r="C41" s="6" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -1774,10 +2104,10 @@
       <c r="I41" s="4"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="22"/>
-      <c r="B42" s="24"/>
+      <c r="A42" s="30"/>
+      <c r="B42" s="27"/>
       <c r="C42" s="5" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -1787,29 +2117,29 @@
       <c r="I42" s="4"/>
     </row>
     <row r="43" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>56</v>
+      <c r="A43" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>46</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="21"/>
-      <c r="B44" s="27"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="26"/>
       <c r="C44" s="5" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -1819,10 +2149,10 @@
       <c r="I44" s="4"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="21"/>
-      <c r="B45" s="27"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="26"/>
       <c r="C45" s="6" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -1832,10 +2162,10 @@
       <c r="I45" s="4"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="22"/>
-      <c r="B46" s="24"/>
+      <c r="A46" s="30"/>
+      <c r="B46" s="27"/>
       <c r="C46" s="5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -1845,29 +2175,29 @@
       <c r="I46" s="4"/>
     </row>
     <row r="47" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="B47" s="26" t="s">
-        <v>60</v>
+      <c r="A47" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>50</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="21"/>
-      <c r="B48" s="27"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="26"/>
       <c r="C48" s="5" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -1877,10 +2207,10 @@
       <c r="I48" s="4"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="21"/>
-      <c r="B49" s="27"/>
+      <c r="A49" s="29"/>
+      <c r="B49" s="26"/>
       <c r="C49" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -1890,10 +2220,10 @@
       <c r="I49" s="4"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="22"/>
-      <c r="B50" s="24"/>
+      <c r="A50" s="30"/>
+      <c r="B50" s="27"/>
       <c r="C50" s="5" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -1902,21 +2232,31 @@
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
+    <row r="51" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A51" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
+      <c r="G51" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="5" t="s">
+        <v>187</v>
+      </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -1925,9 +2265,11 @@
       <c r="I52" s="4"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
+      <c r="A53" s="30"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="5" t="s">
+        <v>188</v>
+      </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
@@ -1935,21 +2277,31 @@
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
+    <row r="54" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
+      <c r="G54" s="4" t="s">
+        <v>191</v>
+      </c>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
+      <c r="A55" s="29"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="5" t="s">
+        <v>193</v>
+      </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
@@ -1957,10 +2309,12 @@
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
+    <row r="56" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="30"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
@@ -3872,33 +4226,37 @@
       <c r="I229" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="30">
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="A54:A56"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="B11:B14"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A15:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B15:B18"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="A31:A34"/>
     <mergeCell ref="B31:B34"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A47:A50"/>
     <mergeCell ref="A35:A38"/>
     <mergeCell ref="B35:B38"/>
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="B39:B42"/>
     <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A47:A50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3907,726 +4265,833 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D7"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.21875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="22.5546875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="37.77734375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="44.6640625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="17" style="19" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="26.21875" style="20" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="19" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" style="19" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="36" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:9" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+    <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+        <v>155</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+        <v>153</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="30"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+    </row>
+    <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="30"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+        <v>136</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+    </row>
+    <row r="7" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+    </row>
+    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="30"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+    </row>
+    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="30"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+    </row>
+    <row r="12" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+    </row>
+    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="30"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="30"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+    </row>
+    <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+    </row>
+    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="29"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="31"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+    </row>
+    <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="29"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="31"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+    </row>
+    <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="29"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D21" s="31"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="31"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+    </row>
+    <row r="23" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="30"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="31"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+    </row>
+    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="29"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="31"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="29"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="31"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+    </row>
+    <row r="27" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="29"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D27" s="31"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" s="31"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+    </row>
+    <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="30"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D29" s="31"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+    </row>
+    <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+    </row>
+    <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="29"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="31"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+    </row>
+    <row r="32" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="29"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="31"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
       <c r="G32" s="5"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+    </row>
+    <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="29"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D33" s="31"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
       <c r="G33" s="5"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" s="31"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
       <c r="G34" s="5"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+    </row>
+    <row r="35" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="30"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D35" s="31"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
       <c r="G35" s="5"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+    </row>
+    <row r="36" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+    </row>
+    <row r="37" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="29"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" s="31"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+    </row>
+    <row r="38" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="29"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="31"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
       <c r="G38" s="5"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+    </row>
+    <row r="39" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="29"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D39" s="31"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
       <c r="G39" s="5"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40" s="31"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
       <c r="G40" s="5"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+    </row>
+    <row r="41" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="30"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D41" s="31"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
       <c r="G41" s="5"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
       <c r="G42" s="5"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
       <c r="C43" s="5"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
       <c r="G43" s="5"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
       <c r="G44" s="5"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
       <c r="C45" s="5"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
       <c r="G45" s="5"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
       <c r="C46" s="5"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
       <c r="G46" s="5"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
       <c r="C47" s="5"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
       <c r="G47" s="5"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
       <c r="C48" s="5"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
       <c r="G48" s="5"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
       <c r="C49" s="5"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
       <c r="G49" s="5"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
       <c r="G50" s="5"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
       <c r="C51" s="5"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
       <c r="G51" s="5"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
       <c r="C52" s="5"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
       <c r="G52" s="5"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
       <c r="C53" s="5"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
       <c r="G53" s="5"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
       <c r="C54" s="5"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
       <c r="G54" s="5"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="D2:D7"/>
+  <mergeCells count="24">
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="D36:D41"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="D24:D29"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="D30:D35"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I229"/>
+  <dimension ref="A1:I234"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="60" style="6" customWidth="1"/>
     <col min="4" max="4" width="19.5546875" style="1" customWidth="1"/>
@@ -4639,60 +5104,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>70</v>
+      <c r="A2" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>253</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="15" t="s">
-        <v>79</v>
+      <c r="F2" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="5" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -4702,10 +5167,10 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="5" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -4715,10 +5180,10 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="5" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -4728,31 +5193,31 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>70</v>
+      <c r="A6" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>253</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="15" t="s">
-        <v>79</v>
+      <c r="F6" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="5" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -4762,10 +5227,10 @@
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="5" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -4775,10 +5240,10 @@
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="5" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -4788,31 +5253,31 @@
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>82</v>
+      <c r="A10" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>254</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="15" t="s">
-        <v>87</v>
+      <c r="F10" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="5" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -4822,10 +5287,10 @@
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="5" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -4835,10 +5300,10 @@
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="5" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -4848,31 +5313,31 @@
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>83</v>
+      <c r="A14" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>64</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="15" t="s">
-        <v>87</v>
+      <c r="F14" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="5" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -4882,10 +5347,10 @@
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="5" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -4895,10 +5360,10 @@
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="5" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -4908,29 +5373,29 @@
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>90</v>
+      <c r="A18" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>255</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="5" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -4940,10 +5405,10 @@
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="5" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -4953,29 +5418,29 @@
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>99</v>
+      <c r="A21" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>256</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="5" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -4985,10 +5450,10 @@
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="5" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -4998,29 +5463,29 @@
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A24" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>100</v>
+      <c r="A24" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>74</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="5" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -5030,10 +5495,10 @@
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
-      <c r="B26" s="22"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="5" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -5043,29 +5508,29 @@
       <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A27" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>101</v>
+      <c r="A27" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>257</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="5" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -5075,10 +5540,10 @@
       <c r="I28" s="4"/>
     </row>
     <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="21"/>
-      <c r="B29" s="22"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="27"/>
       <c r="C29" s="5" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -5088,29 +5553,29 @@
       <c r="I29" s="4"/>
     </row>
     <row r="30" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>111</v>
+      <c r="A30" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>258</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="2" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="5" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -5120,10 +5585,10 @@
       <c r="I31" s="4"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="5" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -5133,29 +5598,29 @@
       <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>123</v>
+      <c r="A33" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>259</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="2" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="5" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -5165,10 +5630,10 @@
       <c r="I34" s="4"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="21"/>
-      <c r="B35" s="22"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="27"/>
       <c r="C35" s="5" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -5178,29 +5643,29 @@
       <c r="I35" s="4"/>
     </row>
     <row r="36" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>126</v>
+      <c r="A36" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>91</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="2" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="5" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -5210,10 +5675,10 @@
       <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="21"/>
-      <c r="B38" s="22"/>
+      <c r="A38" s="30"/>
+      <c r="B38" s="27"/>
       <c r="C38" s="5" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -5223,29 +5688,29 @@
       <c r="I38" s="4"/>
     </row>
     <row r="39" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>130</v>
+      <c r="A39" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>95</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="2" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="26"/>
       <c r="C40" s="5" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -5255,10 +5720,10 @@
       <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="21"/>
-      <c r="B41" s="22"/>
+      <c r="A41" s="30"/>
+      <c r="B41" s="27"/>
       <c r="C41" s="5" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -5268,29 +5733,29 @@
       <c r="I41" s="4"/>
     </row>
     <row r="42" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>134</v>
+      <c r="A42" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>262</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="2" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="26"/>
       <c r="C43" s="5" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -5300,10 +5765,10 @@
       <c r="I43" s="4"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="21"/>
-      <c r="B44" s="22"/>
+      <c r="A44" s="30"/>
+      <c r="B44" s="27"/>
       <c r="C44" s="5" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -5313,29 +5778,29 @@
       <c r="I44" s="4"/>
     </row>
     <row r="45" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>142</v>
+      <c r="A45" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>261</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="2" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="21"/>
-      <c r="B46" s="21"/>
+      <c r="A46" s="29"/>
+      <c r="B46" s="26"/>
       <c r="C46" s="5" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -5345,10 +5810,10 @@
       <c r="I46" s="4"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="21"/>
-      <c r="B47" s="22"/>
+      <c r="A47" s="30"/>
+      <c r="B47" s="27"/>
       <c r="C47" s="5" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -5358,29 +5823,29 @@
       <c r="I47" s="4"/>
     </row>
     <row r="48" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>146</v>
+      <c r="A48" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>260</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="2" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="21"/>
-      <c r="B49" s="21"/>
+      <c r="A49" s="29"/>
+      <c r="B49" s="26"/>
       <c r="C49" s="5" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -5390,10 +5855,10 @@
       <c r="I49" s="4"/>
     </row>
     <row r="50" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="21"/>
-      <c r="B50" s="22"/>
+      <c r="A50" s="30"/>
+      <c r="B50" s="27"/>
       <c r="C50" s="5" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -5403,29 +5868,29 @@
       <c r="I50" s="4"/>
     </row>
     <row r="51" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>152</v>
+      <c r="A51" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>264</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="2" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="21"/>
-      <c r="B52" s="21"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="26"/>
       <c r="C52" s="5" t="s">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -5435,10 +5900,10 @@
       <c r="I52" s="4"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="21"/>
-      <c r="B53" s="22"/>
+      <c r="A53" s="30"/>
+      <c r="B53" s="27"/>
       <c r="C53" s="5" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -5448,29 +5913,29 @@
       <c r="I53" s="4"/>
     </row>
     <row r="54" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A54" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>157</v>
+      <c r="A54" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>263</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="2" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="21"/>
-      <c r="B55" s="21"/>
+      <c r="A55" s="29"/>
+      <c r="B55" s="26"/>
       <c r="C55" s="5" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -5480,10 +5945,10 @@
       <c r="I55" s="4"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="21"/>
-      <c r="B56" s="22"/>
+      <c r="A56" s="30"/>
+      <c r="B56" s="27"/>
       <c r="C56" s="5" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -5493,29 +5958,29 @@
       <c r="I56" s="4"/>
     </row>
     <row r="57" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="B57" s="20" t="s">
-        <v>162</v>
+      <c r="A57" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="B57" s="25" t="s">
+        <v>266</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="2" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="21"/>
-      <c r="B58" s="21"/>
+      <c r="A58" s="29"/>
+      <c r="B58" s="26"/>
       <c r="C58" s="5" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -5525,10 +5990,10 @@
       <c r="I58" s="4"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="21"/>
-      <c r="B59" s="22"/>
+      <c r="A59" s="30"/>
+      <c r="B59" s="27"/>
       <c r="C59" s="5" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -5538,29 +6003,29 @@
       <c r="I59" s="4"/>
     </row>
     <row r="60" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="B60" s="20" t="s">
-        <v>166</v>
+      <c r="A60" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>265</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="2" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="21"/>
-      <c r="B61" s="21"/>
+      <c r="A61" s="29"/>
+      <c r="B61" s="26"/>
       <c r="C61" s="5" t="s">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -5570,10 +6035,10 @@
       <c r="I61" s="4"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="21"/>
-      <c r="B62" s="22"/>
+      <c r="A62" s="30"/>
+      <c r="B62" s="27"/>
       <c r="C62" s="5" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -5583,29 +6048,29 @@
       <c r="I62" s="4"/>
     </row>
     <row r="63" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="B63" s="20" t="s">
-        <v>168</v>
+      <c r="A63" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>267</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="2" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="21"/>
-      <c r="B64" s="21"/>
+      <c r="A64" s="29"/>
+      <c r="B64" s="26"/>
       <c r="C64" s="5" t="s">
-        <v>169</v>
+        <v>118</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -5615,10 +6080,10 @@
       <c r="I64" s="4"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="21"/>
-      <c r="B65" s="22"/>
+      <c r="A65" s="30"/>
+      <c r="B65" s="27"/>
       <c r="C65" s="5" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -5628,29 +6093,29 @@
       <c r="I65" s="4"/>
     </row>
     <row r="66" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="B66" s="20" t="s">
-        <v>170</v>
+      <c r="A66" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>268</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="2" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="21"/>
-      <c r="B67" s="21"/>
+      <c r="A67" s="29"/>
+      <c r="B67" s="26"/>
       <c r="C67" s="5" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -5660,10 +6125,10 @@
       <c r="I67" s="4"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="21"/>
-      <c r="B68" s="22"/>
+      <c r="A68" s="30"/>
+      <c r="B68" s="27"/>
       <c r="C68" s="5" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
@@ -5673,29 +6138,29 @@
       <c r="I68" s="4"/>
     </row>
     <row r="69" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="B69" s="20" t="s">
-        <v>172</v>
+      <c r="A69" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>270</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
       <c r="G69" s="2" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="21"/>
-      <c r="B70" s="21"/>
+      <c r="A70" s="29"/>
+      <c r="B70" s="26"/>
       <c r="C70" s="5" t="s">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
@@ -5705,10 +6170,10 @@
       <c r="I70" s="4"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="21"/>
-      <c r="B71" s="22"/>
+      <c r="A71" s="30"/>
+      <c r="B71" s="27"/>
       <c r="C71" s="5" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
@@ -5717,43 +6182,45 @@
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
     </row>
-    <row r="72" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="4"/>
-      <c r="B72" s="20" t="s">
-        <v>162</v>
+    <row r="72" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A72" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>269</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="4"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
+      <c r="A73" s="29"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="4"/>
-      <c r="B74" s="22"/>
+      <c r="A74" s="29"/>
+      <c r="B74" s="26"/>
       <c r="C74" s="5" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
@@ -5762,75 +6229,71 @@
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
     </row>
-    <row r="75" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="4"/>
-      <c r="B75" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>179</v>
-      </c>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="30"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
-      <c r="G75" s="2" t="s">
-        <v>165</v>
-      </c>
+      <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="4"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D76" s="4"/>
+    <row r="76" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A76" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="B76" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
+      <c r="G76" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="4"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-    </row>
-    <row r="78" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="4"/>
-      <c r="B78" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>179</v>
-      </c>
+      <c r="A77" s="29"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="29"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
-      <c r="G78" s="2" t="s">
-        <v>165</v>
-      </c>
+      <c r="G78" s="4"/>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="4"/>
-      <c r="B79" s="21"/>
+      <c r="A79" s="30"/>
+      <c r="B79" s="27"/>
       <c r="C79" s="5" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
@@ -5839,43 +6302,45 @@
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="4"/>
-      <c r="B80" s="22"/>
-      <c r="C80" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D80" s="4"/>
+    <row r="80" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A80" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="B80" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
+      <c r="G80" s="2" t="s">
+        <v>165</v>
+      </c>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
     </row>
-    <row r="81" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="4"/>
-      <c r="B81" s="20" t="s">
-        <v>170</v>
-      </c>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="29"/>
+      <c r="B81" s="26"/>
       <c r="C81" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
+        <v>156</v>
+      </c>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="16"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="4"/>
-      <c r="B82" s="21"/>
+      <c r="A82" s="29"/>
+      <c r="B82" s="26"/>
       <c r="C82" s="5" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
@@ -5885,8 +6350,8 @@
       <c r="I82" s="4"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="4"/>
-      <c r="B83" s="22"/>
+      <c r="A83" s="30"/>
+      <c r="B83" s="27"/>
       <c r="C83" s="5" t="s">
         <v>164</v>
       </c>
@@ -5897,43 +6362,45 @@
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
     </row>
-    <row r="84" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="4"/>
-      <c r="B84" s="20" t="s">
-        <v>172</v>
+    <row r="84" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A84" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="B84" s="25" t="s">
+        <v>271</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" s="4"/>
-      <c r="B85" s="21"/>
-      <c r="C85" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
+      <c r="A85" s="29"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="16"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="4"/>
-      <c r="B86" s="22"/>
+      <c r="A86" s="29"/>
+      <c r="B86" s="26"/>
       <c r="C86" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
@@ -5943,9 +6410,11 @@
       <c r="I86" s="4"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="5"/>
+      <c r="A87" s="30"/>
+      <c r="B87" s="27"/>
+      <c r="C87" s="5" t="s">
+        <v>167</v>
+      </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
@@ -5953,32 +6422,46 @@
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="4"/>
+    <row r="88" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A88" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="B88" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
+      <c r="G88" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
+      <c r="A89" s="29"/>
+      <c r="B89" s="26"/>
+      <c r="C89" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="16"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="5"/>
+      <c r="A90" s="29"/>
+      <c r="B90" s="26"/>
+      <c r="C90" s="5" t="s">
+        <v>169</v>
+      </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
@@ -5986,10 +6469,12 @@
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="5"/>
+    <row r="91" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A91" s="30"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="5" t="s">
+        <v>170</v>
+      </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
@@ -5997,52 +6482,68 @@
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
+    <row r="92" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="B92" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D92" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E92" s="16"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="15" t="s">
+        <v>116</v>
+      </c>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
+      <c r="A93" s="29"/>
+      <c r="B93" s="26"/>
+      <c r="C93" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D93" s="16"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="15"/>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
+      <c r="A94" s="29"/>
+      <c r="B94" s="26"/>
+      <c r="C94" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D94" s="16"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="16"/>
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
+      <c r="A95" s="30"/>
+      <c r="B95" s="27"/>
+      <c r="C95" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" s="4"/>
+      <c r="A96" s="8"/>
       <c r="B96" s="4"/>
       <c r="C96" s="5"/>
       <c r="D96" s="4"/>
@@ -6053,7 +6554,7 @@
       <c r="I96" s="4"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" s="4"/>
+      <c r="A97" s="8"/>
       <c r="B97" s="4"/>
       <c r="C97" s="5"/>
       <c r="D97" s="4"/>
@@ -6064,7 +6565,7 @@
       <c r="I97" s="4"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" s="4"/>
+      <c r="A98" s="8"/>
       <c r="B98" s="4"/>
       <c r="C98" s="5"/>
       <c r="D98" s="4"/>
@@ -6075,7 +6576,7 @@
       <c r="I98" s="4"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="4"/>
+      <c r="A99" s="8"/>
       <c r="B99" s="4"/>
       <c r="C99" s="5"/>
       <c r="D99" s="4"/>
@@ -7515,8 +8016,63 @@
       <c r="H229" s="4"/>
       <c r="I229" s="4"/>
     </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A230" s="4"/>
+      <c r="B230" s="4"/>
+      <c r="C230" s="5"/>
+      <c r="D230" s="4"/>
+      <c r="E230" s="4"/>
+      <c r="F230" s="4"/>
+      <c r="G230" s="4"/>
+      <c r="H230" s="4"/>
+      <c r="I230" s="4"/>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A231" s="4"/>
+      <c r="B231" s="4"/>
+      <c r="C231" s="5"/>
+      <c r="D231" s="4"/>
+      <c r="E231" s="4"/>
+      <c r="F231" s="4"/>
+      <c r="G231" s="4"/>
+      <c r="H231" s="4"/>
+      <c r="I231" s="4"/>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A232" s="4"/>
+      <c r="B232" s="4"/>
+      <c r="C232" s="5"/>
+      <c r="D232" s="4"/>
+      <c r="E232" s="4"/>
+      <c r="F232" s="4"/>
+      <c r="G232" s="4"/>
+      <c r="H232" s="4"/>
+      <c r="I232" s="4"/>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A233" s="4"/>
+      <c r="B233" s="4"/>
+      <c r="C233" s="5"/>
+      <c r="D233" s="4"/>
+      <c r="E233" s="4"/>
+      <c r="F233" s="4"/>
+      <c r="G233" s="4"/>
+      <c r="H233" s="4"/>
+      <c r="I233" s="4"/>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A234" s="4"/>
+      <c r="B234" s="4"/>
+      <c r="C234" s="5"/>
+      <c r="D234" s="4"/>
+      <c r="E234" s="4"/>
+      <c r="F234" s="4"/>
+      <c r="G234" s="4"/>
+      <c r="H234" s="4"/>
+      <c r="I234" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="56">
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B14:B17"/>
@@ -7548,24 +8104,31 @@
     <mergeCell ref="A45:A47"/>
     <mergeCell ref="A48:A50"/>
     <mergeCell ref="B51:B53"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B57:B59"/>
     <mergeCell ref="A66:A68"/>
     <mergeCell ref="A69:A71"/>
     <mergeCell ref="B63:B65"/>
     <mergeCell ref="B66:B68"/>
     <mergeCell ref="B69:B71"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="A88:A91"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
@@ -7579,15 +8142,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I229"/>
+  <dimension ref="A1:I228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B19" sqref="B19:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="60" style="6" customWidth="1"/>
     <col min="4" max="4" width="19.5546875" style="1" customWidth="1"/>
@@ -7600,56 +8163,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22" t="s">
-        <v>115</v>
+      <c r="A2" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>251</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -7659,10 +8224,10 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -7672,27 +8237,29 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23" t="s">
-        <v>116</v>
+      <c r="A5" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>252</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="9" t="s">
-        <v>17</v>
+      <c r="A6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -7701,39 +8268,43 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="9"/>
+    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23" t="s">
-        <v>117</v>
-      </c>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="31"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
+    <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -7743,22 +8314,30 @@
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
+      <c r="A10" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>174</v>
+      </c>
       <c r="C10" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>177</v>
+      </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="5" t="s">
+        <v>175</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -7767,9 +8346,11 @@
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -7777,52 +8358,58 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+    <row r="13" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17" t="s">
+        <v>177</v>
+      </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="2" t="s">
-        <v>121</v>
+      <c r="A14" s="29"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17" t="s">
+        <v>182</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="21"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+        <v>176</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="22"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="5" t="s">
-        <v>120</v>
+        <v>179</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -7832,9 +8419,11 @@
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -7842,10 +8431,12 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
+    <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="30"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="5" t="s">
+        <v>181</v>
+      </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -7853,69 +8444,89 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+    <row r="19" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17" t="s">
+        <v>177</v>
+      </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+    <row r="20" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="29"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17" t="s">
+        <v>186</v>
+      </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+    <row r="23" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="29"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
@@ -10163,27 +10774,20 @@
       <c r="H228" s="4"/>
       <c r="I228" s="4"/>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A229" s="4"/>
-      <c r="B229" s="4"/>
-      <c r="C229" s="5"/>
-      <c r="D229" s="4"/>
-      <c r="E229" s="4"/>
-      <c r="F229" s="4"/>
-      <c r="G229" s="4"/>
-      <c r="H229" s="4"/>
-      <c r="I229" s="4"/>
-    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B14:B16"/>
+  <mergeCells count="12">
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="B13:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
